--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0196A4-C915-E443-8D64-6A80F75AC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC3272-C7A0-724A-B7B2-8BA8BDB6141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1837,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC3272-C7A0-724A-B7B2-8BA8BDB6141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BBB38-1457-734C-8724-F34FC12064A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>https:://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1837,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1887,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>99</v>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BBB38-1457-734C-8724-F34FC12064A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA7D18-21B0-A540-ACDD-D7E9C244AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
@@ -640,17 +640,17 @@
     <t>59.032|0xbb82cd10ab2add752b2b9224931077b2</t>
   </si>
   <si>
-    <t>https:://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -739,6 +739,14 @@
       <color rgb="FFC7254E"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -757,10 +765,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,8 +792,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1841,7 +1852,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1890,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" t="s">
         <v>99</v>
@@ -1928,8 +1939,8 @@
       <c r="C2" t="s">
         <v>150</v>
       </c>
-      <c r="D2" t="s">
-        <v>151</v>
+      <c r="D2" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>139</v>
@@ -1966,6 +1977,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{051CD610-28E6-A54D-B737-F7047B5DC8A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA7D18-21B0-A540-ACDD-D7E9C244AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CAB13F-F63D-1E40-B25F-3C7AB87EA321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -812,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,7 +852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -958,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1100,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1354,6 +1354,9 @@
       </c>
       <c r="D2" t="s">
         <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CAB13F-F63D-1E40-B25F-3C7AB87EA321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D44B711-804F-DF47-A4D8-2727DBE3C4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>Blaston 1 mg</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1271,7 +1274,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1318,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1356,7 +1359,7 @@
         <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
